--- a/Assets/@Project/Scripts/Data/RawData/TutorialDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/TutorialDbSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{217CFDE0-5F70-4E7F-B2AC-AB660EDC40B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{616F72EE-D762-40B6-9558-1E3406FE63BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,16 +75,16 @@
     <t>식별번호 NRE-IV-072 메인 시스템 접속.</t>
   </si>
   <si>
-    <t>모듈 상태... 양호. 무기 시스템... 양호.
-초기 테스트 시작.</t>
+    <t>코어 정상 작동. HUD 정상 작동. 오류 없음.
+초기화 테스트 시작.</t>
   </si>
   <si>
     <t>지금부터 전투 훈련 코스 실행 전
-간단한 테스트 절차를 진행합니다.</t>
+기초 테스트 절차를 진행합니다.</t>
   </si>
   <si>
     <t>모듈관절 테스트 진행.
-&lt;color=red&gt;'W' 'A' 'S' 'D'&lt;/color&gt;를 입력해 모듈을 움직이십시오.</t>
+&lt;color=red&gt;[W] [A] [S] [D]&lt;/color&gt; 키를 입력해 모듈을 움직이십시오.</t>
   </si>
   <si>
     <t>Tutorial/TutorialMission2</t>
@@ -94,85 +94,92 @@
   </si>
   <si>
     <t>완충장치 테스트 진행.
-&lt;color=red&gt;'SpaceBar'&lt;/color&gt;를 입력해 점프하십시오.</t>
-  </si>
-  <si>
-    <t>[여기서부터 대충함 - Dev]</t>
+&lt;color=red&gt;[SpaceBar]&lt;/color&gt;키를 입력해 점프하십시오.</t>
   </si>
   <si>
     <t>Tutorial/TutorialMission3</t>
   </si>
   <si>
-    <t>점프했음</t>
-  </si>
-  <si>
-    <t>이동하면서 쉬프트</t>
+    <t>완충장치 정상 확인.</t>
+  </si>
+  <si>
+    <t>부스터 시스템 테스트 진행.
+이동 중 &lt;color=red&gt;[LShift]&lt;/color&gt; 키를 입력해 Dash 하십시오.</t>
   </si>
   <si>
     <t>Tutorial/TutorialMission4</t>
   </si>
   <si>
-    <t>쉬프트 했음</t>
-  </si>
-  <si>
-    <t>점프팩</t>
+    <t>부스터 시스템 정상 확인.</t>
+  </si>
+  <si>
+    <t>버티컬 출력 테스트 진행.
+점프 중 &lt;color=red&gt;[SpaceBar]&lt;/color&gt; 키를 입력해 호버링 하십시오.</t>
   </si>
   <si>
     <t>Tutorial/TutorialMission5</t>
   </si>
   <si>
-    <t>점프팩 했음</t>
-  </si>
-  <si>
-    <t>이제부터 무기사용</t>
-  </si>
-  <si>
-    <t>좌우클로 팔 무기사용</t>
+    <t>버티컬 출력 정상 확인.</t>
+  </si>
+  <si>
+    <t>지금부터 무장 시스템 테스트를 진행합니다.</t>
+  </si>
+  <si>
+    <t>테스트를 위해 다음 장소로 이동하십시오.</t>
   </si>
   <si>
     <t>Tutorial/TutorialMission6</t>
   </si>
   <si>
-    <t>팔무기 사용 했음</t>
-  </si>
-  <si>
-    <t>E Q 눌러서 어깨무기 사용</t>
+    <t>무장 테스트 지역 진입.</t>
+  </si>
+  <si>
+    <t>좌, 우 팔 무장 시스템 테스트 진행.
+마우스 &lt;color=red&gt;[좌] [우]&lt;/color&gt; 클릭으로 무기를 사용하십시오.</t>
   </si>
   <si>
     <t>Tutorial/TutorialMission7</t>
   </si>
   <si>
-    <t>어깨무기 사용했음</t>
-  </si>
-  <si>
-    <t>다음 테스트 지역으로 이동</t>
+    <t>팔 무장 시스템 정상 확인.</t>
+  </si>
+  <si>
+    <t>좌, 우 어깨 무장 시스템 테스트 진행.
+&lt;color=red&gt;[Q] [E]&lt;/color&gt; 키를 입력해 무기를 사용하십시오.</t>
   </si>
   <si>
     <t>Tutorial/TutorialMission8</t>
   </si>
   <si>
-    <t>테스트 지역에 왔음</t>
-  </si>
-  <si>
-    <t>적이 나오고 마우스 중간 클릭으로 락온</t>
+    <t>어깨 무장 시스템 정상 확인.</t>
+  </si>
+  <si>
+    <t>다음은 정밀 사격을 위한
+Lock-On 시스템 테스트를 진행합니다.</t>
+  </si>
+  <si>
+    <t>마우스 &lt;color=red&gt;[휠]&lt;/color&gt; 클릭으로 더미를 조준하십시오.</t>
   </si>
   <si>
     <t>Tutorial/TutorialMission9</t>
   </si>
   <si>
-    <t>락온했음</t>
-  </si>
-  <si>
-    <t>적을 처치해야됨</t>
-  </si>
-  <si>
-    <t>적 처지 끝</t>
-  </si>
-  <si>
-    <t>테스트 종료</t>
-  </si>
-  <si>
-    <t>메인메뉴로 이동시킨다고 하고 끝</t>
+    <t>Lock-On 시스템 정상 확인.</t>
+  </si>
+  <si>
+    <t>적을 조준 시 자동으로 추적합니다.
+무장 시스템을 사용하여 더미를 파괴하십시오.</t>
+  </si>
+  <si>
+    <t>더미 제거 확인.</t>
+  </si>
+  <si>
+    <t>모든 시스템 정상 확인.</t>
+  </si>
+  <si>
+    <t>기초 테스트를 완료했습니다.
+테스트를 종료합니다.</t>
   </si>
 </sst>
 </file>
@@ -208,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,7 +569,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -567,9 +577,9 @@
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="38.125" customWidth="1"/>
-    <col min="4" max="4" width="58.625" customWidth="1"/>
+    <col min="4" max="4" width="62.375" customWidth="1"/>
     <col min="5" max="5" width="57.75" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="6" max="6" width="66" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19.75" customWidth="1"/>
@@ -649,36 +659,33 @@
       <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1">
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="33">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1">
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="49.5">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1">
@@ -686,61 +693,64 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1">
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="33">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1">
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="33">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1">
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="33">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="33">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -750,21 +760,21 @@
       <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1">
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="33">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Assets/@Project/Scripts/Data/RawData/TutorialDbSheet.xlsx
+++ b/Assets/@Project/Scripts/Data/RawData/TutorialDbSheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{616F72EE-D762-40B6-9558-1E3406FE63BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BECE5126-1A81-44F5-90D1-0DB9161373A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
